--- a/Assets/Excel/NPCIdInfo.xlsx
+++ b/Assets/Excel/NPCIdInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE47556F-B572-401C-823A-A9C19533432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E6DDE4-6BD1-417B-9A65-C06A7242CBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11916" yWindow="1440" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11604" yWindow="480" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -31,12 +31,16 @@
     <t>Ramon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>characterDialogueId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +52,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -56,13 +61,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,12 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -413,14 +408,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
@@ -433,7 +428,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -445,6 +442,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
